--- a/tut05/output/0401CS05.xlsx
+++ b/tut05/output/0401CS05.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.897959183673469</v>
+        <v>6.9</v>
       </c>
       <c r="C6" t="n">
-        <v>6.681818181818182</v>
+        <v>6.68</v>
       </c>
       <c r="D6" t="n">
-        <v>7.674418604651163</v>
+        <v>7.67</v>
       </c>
       <c r="E6" t="n">
-        <v>7.446808510638298</v>
+        <v>7.45</v>
       </c>
       <c r="F6" t="n">
-        <v>7.833333333333333</v>
+        <v>7.83</v>
       </c>
       <c r="G6" t="n">
-        <v>7.575</v>
+        <v>7.58</v>
       </c>
       <c r="H6" t="n">
-        <v>8.439024390243903</v>
+        <v>8.44</v>
       </c>
       <c r="I6" t="n">
         <v>8.65</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.897959183673469</v>
+        <v>6.9</v>
       </c>
       <c r="C8" t="n">
-        <v>6.795698924731183</v>
+        <v>6.8</v>
       </c>
       <c r="D8" t="n">
-        <v>7.073529411764706</v>
+        <v>7.07</v>
       </c>
       <c r="E8" t="n">
-        <v>7.169398907103825</v>
+        <v>7.17</v>
       </c>
       <c r="F8" t="n">
-        <v>7.293333333333333</v>
+        <v>7.29</v>
       </c>
       <c r="G8" t="n">
-        <v>7.335849056603774</v>
+        <v>7.34</v>
       </c>
       <c r="H8" t="n">
-        <v>7.483660130718954</v>
+        <v>7.48</v>
       </c>
       <c r="I8" t="n">
-        <v>7.618497109826589</v>
+        <v>7.62</v>
       </c>
     </row>
   </sheetData>
